--- a/Wine_Quality/outputs/train_40_test_60/depth_None/wq_train_40_test_60_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_None/wq_train_40_test_60_depth_None_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.481651376146789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1689189189189189</v>
+        <v>0.5483028720626631</v>
       </c>
       <c r="D2" t="n">
-        <v>0.176678445229682</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8509337860780984</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8395309882747068</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8451939291736931</v>
+        <v>0.1152263374485597</v>
       </c>
       <c r="E3" t="n">
-        <v>2985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.518925518925519</v>
+        <v>0.8441336971350614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5548302872062664</v>
+        <v>0.8291457286432161</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5362776025236593</v>
+        <v>0.8365725874598614</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7581431136188767</v>
+        <v>0.7460887407027443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7581431136188767</v>
+        <v>0.7460887407027443</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7581431136188767</v>
+        <v>0.7460887407027443</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7581431136188767</v>
+        <v>0.7460887407027443</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5183481633962675</v>
+        <v>0.4910511647781606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5210933981332974</v>
+        <v>0.4906810651001579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5193833256423448</v>
+        <v>0.4882064792429779</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.760436446870346</v>
+        <v>0.7464720611419308</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7581431136188767</v>
+        <v>0.7460887407027443</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7591282205720926</v>
+        <v>0.745586864408973</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>

--- a/Wine_Quality/outputs/train_40_test_60/depth_None/wq_train_40_test_60_depth_None_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_None/wq_train_40_test_60_depth_None_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.481651376146789</v>
+        <v>0.48</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5483028720626631</v>
+        <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.51</v>
       </c>
       <c r="E2" t="n">
         <v>766</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.09</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1152263374485597</v>
+        <v>0.12</v>
       </c>
       <c r="E3" t="n">
         <v>148</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8441336971350614</v>
+        <v>0.84</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8291457286432161</v>
+        <v>0.83</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8365725874598614</v>
+        <v>0.84</v>
       </c>
       <c r="E4" t="n">
         <v>2985</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.7460887407027443</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.7460887407027443</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.7460887407027443</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7460887407027443</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4910511647781606</v>
+        <v>0.49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4906810651001579</v>
+        <v>0.49</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4882064792429779</v>
+        <v>0.49</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7464720611419308</v>
+        <v>0.75</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7460887407027443</v>
+        <v>0.75</v>
       </c>
       <c r="D7" t="n">
-        <v>0.745586864408973</v>
+        <v>0.75</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>
